--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用余额——购买成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +187,70 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +610,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -578,31 +634,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -613,542 +669,542 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${DebtBatchUtils.getFinancePlan()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正例-老银行购买精选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getNormalfpId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +610,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -669,25 +669,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,25 +705,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -741,25 +741,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -777,25 +777,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -849,25 +849,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -885,25 +885,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -921,25 +921,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -957,25 +957,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -993,25 +993,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1029,25 +1029,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1065,25 +1065,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1101,25 +1101,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1137,25 +1137,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1173,25 +1173,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>1</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-老银行购买精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getBankUser(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,71 +182,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${FinancePlanUtils.getNormalfpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有建设银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有中信银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有华夏银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有广发银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有平安银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有农业银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有中国银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有招商银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有光大银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有交通银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有民生银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有浦发银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有工商银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有兴业银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有邮政储蓄卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-理财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,18 +610,18 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
@@ -669,25 +669,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,25 +705,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -741,25 +741,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -777,25 +777,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -813,25 +813,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -849,25 +849,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -885,25 +885,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -921,25 +921,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -957,25 +957,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -993,25 +993,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1029,25 +1029,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1065,25 +1065,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1101,25 +1101,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1137,25 +1137,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1173,25 +1173,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByOldBank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,7 +606,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -672,22 +668,22 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,25 +701,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -741,25 +737,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -777,25 +773,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -813,25 +809,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -849,25 +845,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -885,25 +881,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -921,25 +917,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -957,25 +953,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -993,25 +989,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1029,25 +1025,25 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1065,25 +1061,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1101,25 +1097,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1137,25 +1133,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1173,25 +1169,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
